--- a/biology/Botanique/Jardin_Jean-Claude-Nicolas-Forestier/Jardin_Jean-Claude-Nicolas-Forestier.xlsx
+++ b/biology/Botanique/Jardin_Jean-Claude-Nicolas-Forestier/Jardin_Jean-Claude-Nicolas-Forestier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Jean-Claude-Nicolas-Forestier est un espace vert du 13e arrondissement de Paris, en France. 
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'est également appelé « jardin Thomire », à cause de la rue Thomire qui le longe à l'est.
 Le jardin est accessible par le 79, boulevard Kellermann, par la rue Thomire et par la rue Francis-de-Miomandre, qui longe le stade Charléty et le cimetière de Gentilly.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il tire son nom de l'architecte paysagiste Jean Claude Nicolas Forestier (1861-1930).
 </t>
@@ -576,9 +592,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est créé en 1994 par le paysagiste Louis Benech[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est créé en 1994 par le paysagiste Louis Benech.
 </t>
         </is>
       </c>
